--- a/data/skinspock.xlsx
+++ b/data/skinspock.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X39"/>
+  <dimension ref="A1:V45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,115 +441,105 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>markethashname</t>
+          <t>marketname</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>marketname</t>
+          <t>count</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>count</t>
+          <t>assetid</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>assetid</t>
+          <t>pricelatest</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>pricelatest</t>
+          <t>pricelatestsell</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>pricelatestsell</t>
+          <t>pricelatestsell24h</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>pricelatestsell24h</t>
+          <t>pricelatestsell7d</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>pricelatestsell7d</t>
+          <t>pricelatestsell30d</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>pricelatestsell30d</t>
+          <t>pricelatestsell90d</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>pricelatestsell90d</t>
+          <t>pricemix</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>pricemix</t>
+          <t>sold90d</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>sold90d</t>
+          <t>priceupdatedat</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>priceupdatedat</t>
+          <t>bordercolor</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>bordercolor</t>
+          <t>color</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>color</t>
+          <t>rarity</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>rarity</t>
+          <t>image</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>image</t>
+          <t>pricereal</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>inspectlink</t>
+          <t>pricereal24h</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>pricereal</t>
+          <t>pricereal7d</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>pricereal24h</t>
+          <t>pricereal30d</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>pricereal7d</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>pricereal30d</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>pricereal90d</t>
         </is>
@@ -558,1983 +548,1773 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>5d8629f2</t>
+          <t>36a475ab</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AWP | Fever Dream (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>AWP | Fever Dream (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
+          <t>Kilowatt Case</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>1</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>43668495826</t>
-        </is>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>44904042460</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>0.6</v>
       </c>
       <c r="F2" t="n">
-        <v>17.84</v>
+        <v>0.61</v>
       </c>
       <c r="G2" t="n">
-        <v>17.71</v>
+        <v>0.63</v>
       </c>
       <c r="H2" t="n">
-        <v>18.08</v>
+        <v>0.62</v>
       </c>
       <c r="I2" t="n">
-        <v>17.13</v>
+        <v>0.64</v>
       </c>
       <c r="J2" t="n">
-        <v>16.16</v>
+        <v>0.82</v>
       </c>
       <c r="K2" t="n">
-        <v>14.99</v>
+        <v>0.43</v>
       </c>
       <c r="L2" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="M2" t="n">
-        <v>4210</v>
+        <v>7111253</v>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 13:40:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 15:31:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>d32ce6</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>Classified</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpot621FAR17PLfYQJS_8W1nI-bluP8DLbUkmJE5Yt3ibGS89ut3QO1_EA4YzunLYHAewc3MgrQ-Vi-w-3t0ZXq7prPy3djpGB8sh_n24f0</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668495826D5398842792787091113</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXU5A1PIYQNqhpOSV-fRPasw8rsUFJ5KBFZv668FFQznaKdID5D6d23ldHSwKOmZeyEz21XvZZ12LzE9t6nigbgqkplNjihJIaLMlhpF1ZeR5c</t>
+        </is>
+      </c>
+      <c r="R2" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.42</v>
       </c>
       <c r="T2" t="n">
-        <v>12.57</v>
+        <v>0.42</v>
       </c>
       <c r="U2" t="n">
-        <v>12.79</v>
+        <v>0.44</v>
       </c>
       <c r="V2" t="n">
-        <v>12.04</v>
-      </c>
-      <c r="W2" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="X2" t="n">
-        <v>10.02</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>0e7f9f7d</t>
+          <t>3ff959eb</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>StatTrak™ PP-Bizon | Jungle Slipstream (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>StatTrak™ PP-Bizon | Jungle Slipstream (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
+          <t>SSG 08 | Memorial (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>1</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>43668539177</t>
-        </is>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>43668703724</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>0.1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.89</v>
+        <v>0.08</v>
       </c>
       <c r="G3" t="n">
-        <v>0.9</v>
+        <v>0.08</v>
       </c>
       <c r="H3" t="n">
-        <v>0.91</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>0.9</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>1.09</v>
+        <v>0.61</v>
       </c>
       <c r="K3" t="n">
-        <v>0.77</v>
+        <v>0.05</v>
       </c>
       <c r="L3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="M3" t="n">
-        <v>661</v>
+        <v>96789</v>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-02 23:55:00.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 16:47:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>99ccff</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpotLO_JAlf2-r3czRY49KJgI-ZmcjzIb7UmFRd4cJ5nqeUoImj3VfkqRc4YGrzJtWRcgRvZ12C-AW4wu-6jZa-vMzPziFkunQn-z-DyLHZThni</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668539177D11709551351924383248</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopamie19fwODPIWV97s6jgIGHnuTgDLbUkmJE5Yt02bDEo9StjA2w_BY-Y2CmIdSVelc-aArZ-gfsye65jZC7uZidmyZmpGB8sg4j4ZRT</t>
+        </is>
+      </c>
+      <c r="R3" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.06</v>
       </c>
       <c r="T3" t="n">
-        <v>0.57</v>
+        <v>0.05</v>
       </c>
       <c r="U3" t="n">
-        <v>0.57</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.53</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="V3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>de6e47f3</t>
+          <t>e9a10a56</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Desert Eagle | Serpent Strike (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Desert Eagle | Serpent Strike (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>43668584026</t>
-        </is>
+          <t>MAG-7 | Resupply (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>43778119582</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>0.09</v>
       </c>
       <c r="F4" t="n">
-        <v>0.78</v>
+        <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>0.75</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>0.68</v>
+        <v>0.08</v>
       </c>
       <c r="J4" t="n">
-        <v>1.5</v>
+        <v>0.39</v>
       </c>
       <c r="K4" t="n">
-        <v>3.4</v>
+        <v>0.05</v>
       </c>
       <c r="L4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="M4" t="n">
-        <v>48666</v>
+        <v>94074</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 22:20:30.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 07:00:33.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>8847ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>Restricted</t>
-        </is>
-      </c>
-      <c r="R4" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgposr-kLAtl7PfNcDpO6eOlmoGAksjkMq_Fk3lf18h0juDU-MKh3wG3qkdkNmv0cIGTIw4_Y1zZ81jtl-nojZC86ZrPyiFqvyMh4XiMgVXp1jmC8QbU</t>
-        </is>
-      </c>
-      <c r="S4" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668584026D11584494517367136321</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou7uifDht0vSfTjxP4dOJlo-TqPrxN7LEmyVVvsFy3O-Spo-t3QLkrRBtajj0I9WTIwc9ZVrSqwC_w-i91JG1uJuf1zI97WuQzgyK</t>
+        </is>
+      </c>
+      <c r="R4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="U4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="X4" t="inlineStr"/>
+        <v>0.05</v>
+      </c>
+      <c r="V4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7c9f9951</t>
+          <t>9c6a841a</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P90 | Mustard Gas (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>P90 | Mustard Gas (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
+          <t>SG 553 | Ol' Rusty (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>43594131082</t>
-        </is>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44345890262</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0.08</v>
       </c>
       <c r="F5" t="n">
-        <v>0.49</v>
+        <v>0.06</v>
       </c>
       <c r="G5" t="n">
-        <v>0.48</v>
+        <v>0.05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.48</v>
+        <v>0.06</v>
       </c>
       <c r="I5" t="n">
-        <v>0.35</v>
+        <v>0.09</v>
       </c>
       <c r="J5" t="n">
-        <v>0.72</v>
+        <v>0.06</v>
       </c>
       <c r="K5" t="n">
-        <v>1.05</v>
+        <v>0.03</v>
       </c>
       <c r="L5" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M5" t="n">
-        <v>16763</v>
+        <v>95323</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-30 04:01:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 13:20:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>5e98d9</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>Industrial Grade</t>
-        </is>
-      </c>
-      <c r="R5" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopuP1FA951szSfjJP09GzkImemrmlMrrSlWlT7ZYn3b6VoNukjVG3_EI4YmDwIYeTcgU-Zw2Eq1XswOfpm9bi6xe-rUEs</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43594131082D5233997241194237557</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopb3wflFf1OD3YjoXuY-JhpWYg-7LPr7Vn35cppMm07zFotit0Q3j_kRuam2gIdCRcgI9YA6Fr1O7le6708Xt6prOwSN9-n51UE2txSE</t>
+        </is>
+      </c>
+      <c r="R5" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.03</v>
       </c>
       <c r="T5" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="U5" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="V5" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X5" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>0d81d5bb</t>
+          <t>9445f5f9</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MP7 | Akoben (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>MP7 | Akoben (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>43668629944</t>
-        </is>
+          <t>USP-S | PC-GRN (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43898493486</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0.08</v>
       </c>
       <c r="F6" t="n">
-        <v>0.41</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G6" t="n">
-        <v>0.42</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0.39</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>0.35</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="L6" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="M6" t="n">
-        <v>2199</v>
+        <v>70916</v>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-02 11:57:32.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 12:28:37.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>9da1a9</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou6ryFBRw7P7YJgJW_tW0lYy0jvL4P7TGqWdY781lxOuV997w3wexqBBuY2rycNDDIQVrMA3Yq1S6k7vsjZG0vJrPynUwvnQ8pSGKX4XSyFk</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668629944D5477752559405788269</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpoo6m1FBRp3_bGcjhQ08mlhJO0leXhJ77XmXlS7fp2mOzE-7P9jVWisl09YTr6cYfDdwY2ZQ6D_1frlb_m1pS7vpyfmiNr6HVw7S6Onha2gkwacKUx0mNx5dkp</t>
+        </is>
+      </c>
+      <c r="R6" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.04</v>
       </c>
       <c r="T6" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="U6" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W6" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.27</v>
-      </c>
+        <v>0.05</v>
+      </c>
+      <c r="V6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>c5ae780c</t>
+          <t>9f92cc4d</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>MAG-7 | Sonar (Factory New)</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>MAG-7 | Sonar (Factory New)</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
+          <t>R8 Revolver | Grip (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>43668251447</t>
-        </is>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43778063269</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0.08</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4</v>
+        <v>0.08</v>
       </c>
       <c r="H7" t="n">
-        <v>0.47</v>
+        <v>0.05</v>
       </c>
       <c r="I7" t="n">
-        <v>0.39</v>
+        <v>0.05</v>
       </c>
       <c r="J7" t="n">
-        <v>0.32</v>
+        <v>0.08</v>
       </c>
       <c r="K7" t="n">
-        <v>0.44</v>
+        <v>0.04</v>
       </c>
       <c r="L7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2333</v>
+        <v>8175</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-29 01:08:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 15:51:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>9da1a9</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou7uifDhh3szFcDoV09G3mIaEhfrLP7LWnn8fu5QmiLvFoNz32wLl_xJuYmz2INSUdw4_MArV-ALvwey-g8DvuZuYymwj5HdAX4w01A</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668251447D7557181251157873745</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopL-zJAt21uH3di59_tmgm4ydkuXLJ6nUl29u5cB1g_zMu4ql2VLlr0I4YGr7LNfGJAdvYA6D_lLtxurqjJa-7s_PwXZiuCZw5XvD30vg7Tm2KDc</t>
+        </is>
+      </c>
+      <c r="R7" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.04</v>
       </c>
       <c r="T7" t="n">
-        <v>0.26</v>
+        <v>0.03</v>
       </c>
       <c r="U7" t="n">
-        <v>0.26</v>
+        <v>0.04</v>
       </c>
       <c r="V7" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="W7" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="X7" t="n">
-        <v>0.24</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3d33f5ea</t>
+          <t>d773e6bd</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>MAC-10 | Oceanic (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>MAC-10 | Oceanic (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
+          <t>MP9 | Nexus (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>43668530252</t>
-        </is>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>43777096333</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0.08</v>
       </c>
       <c r="F8" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="G8" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="H8" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I8" t="n">
-        <v>0.23</v>
+        <v>0.06</v>
       </c>
       <c r="J8" t="n">
-        <v>0.16</v>
+        <v>0.3</v>
       </c>
       <c r="K8" t="n">
-        <v>0.13</v>
+        <v>0.04</v>
       </c>
       <c r="L8" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M8" t="n">
-        <v>25136</v>
+        <v>50335</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 17:07:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 20:53:22.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>9da1a9</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou7umeldf0v73fDxBvYyJm4OOlvn9DLbUkmJE5YtwiLHApNmm0QzkqUJrYGz0doSXdAdqNVnY-gDow7vojZO675-fnSRrpGB8slzPOjEq</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668530252D1044837324522981001</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou6r8FApwiszGdCVX_-O-kYGdjrn2Y7mElTJSsZUo0rHD9orx0Fbh-0VrYTqlIYSTdQ86MFDSqVC5wLq8m9bi69WTyd5h</t>
+        </is>
+      </c>
+      <c r="R8" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.04</v>
       </c>
       <c r="T8" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="U8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0.07000000000000001</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="V8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>d65f03e8</t>
+          <t>843f02e9</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AUG | Condemned (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>AUG | Condemned (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
+          <t>MP9 | Buff Blue (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>14135972478</t>
-        </is>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44763611067</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>0.23</v>
+        <v>0.05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.22</v>
+        <v>0.05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="I9" t="n">
-        <v>0.18</v>
+        <v>0.04</v>
       </c>
       <c r="J9" t="n">
-        <v>0.15</v>
+        <v>0.19</v>
       </c>
       <c r="K9" t="n">
-        <v>0.11</v>
+        <v>0.04</v>
       </c>
       <c r="L9" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="M9" t="n">
-        <v>25995</v>
+        <v>80267</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-03 00:03:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 22:33:03.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>5e98d9</t>
+          <t>Consumer Grade</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>Industrial Grade</t>
-        </is>
-      </c>
-      <c r="R9" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpot6-iFBRw7P7NYjV96tOkkZOfqPH9Ib7ummJW4NE_3uyZoNmn2wa3-hBqYW73IdPHe1JvZQrRqVnqlby815O9uJTAwHJq7z5iuyhwjYjhXw</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A14135972478D7521825713316870312</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou6r8FA907PHEZDh96dixkZO0mvLwOq7c2D8E68MgjL2Y992njA3krhJtNT-nLYOSdwI-YgrUrAC4yejvjcW4uZvXiSw06NjdK8M</t>
+        </is>
+      </c>
+      <c r="R9" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.04</v>
       </c>
       <c r="T9" t="n">
-        <v>0.14</v>
+        <v>0.04</v>
       </c>
       <c r="U9" t="n">
-        <v>0.14</v>
+        <v>0.03</v>
       </c>
       <c r="V9" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W9" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0.05</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ec05b1a3</t>
+          <t>ea02a74f</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>USP-S | PC-GRN (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>USP-S | PC-GRN (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>43668675109</t>
-        </is>
+          <t>SSG 08 | Memorial (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44558056264</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="G10" t="n">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.25</v>
+        <v>0.05</v>
       </c>
       <c r="I10" t="n">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="J10" t="n">
-        <v>0.77</v>
+        <v>0.39</v>
       </c>
       <c r="K10" t="n">
-        <v>1.84</v>
+        <v>0.04</v>
       </c>
       <c r="L10" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="M10" t="n">
-        <v>56612</v>
+        <v>63591</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-30 00:16:30.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 14:51:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>9da1a9</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R10" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpoo6m1FBRp3_bGcjhQ08mlhJO0leXhJ77XmXlS7fp2mOzE-7P5gVO8v109a2n0ItSRJFc7MArX_AO2w-3thJW7tJqdwXNgvClx53bamhe2hB0dcKUx0gbwPWYB</t>
-        </is>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668675109D2343603159334490409</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopamie19fwODPIWV97s6jgIGHnuTgDLbUkmJE5Yt02bDEo9StjA2w_BY-Y2CmIdSVelc-aArZ-gfsye65jZC7uZidmyZmpGB8sg4j4ZRT</t>
+        </is>
+      </c>
+      <c r="R10" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.04</v>
       </c>
       <c r="T10" t="n">
-        <v>0.13</v>
+        <v>0.03</v>
       </c>
       <c r="U10" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="X10" t="inlineStr"/>
+        <v>0.05</v>
+      </c>
+      <c r="V10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>f4bcd62f</t>
+          <t>0d30b3cb</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>XM1014 | Blue Steel (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>XM1014 | Blue Steel (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
+          <t>MP5-SD | Necro Jr. (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
         <v>1</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>20473690748</t>
-        </is>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>44558054830</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="G11" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="H11" t="n">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="I11" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="J11" t="n">
-        <v>0.11</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="L11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M11" t="n">
-        <v>31748</v>
+        <v>54442</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 02:49:32.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 18:22:23.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>5e98d9</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>Industrial Grade</t>
-        </is>
-      </c>
-      <c r="R11" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgporrf0e1Y07PLZTj9O-dmyq4yCkP_gfbiDlDIB6cYh2LjE8YqjigWxqkU9Y2j7JdLEJlJqNV-FqVHqle-81sWi_MOeYWUdqGo</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A20473690748D7686562929569132545</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou6rwOANf1OD3fC0X09e_kL-FkvTmPLXem2JS58tOh-zF_Jn4xgLgqRI5MGz6LdWVIVVqN1qBqwe9lOfp0Je8us7KwCdruiIr5H7amUOpwUYb1RXXcOw</t>
+        </is>
+      </c>
+      <c r="R11" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.04</v>
       </c>
       <c r="T11" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="V11" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="X11" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>006106a1</t>
+          <t>0853cdaa</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>StatTrak™ MP9 | Nexus (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>StatTrak™ MP9 | Nexus (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
+          <t>P2000 | Lifted Spirits (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
         <v>1</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>43668635380</t>
-        </is>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44411809831</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F12" t="n">
-        <v>0.18</v>
+        <v>0.03</v>
       </c>
       <c r="G12" t="n">
-        <v>0.18</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="H12" t="n">
-        <v>0.18</v>
+        <v>0.05</v>
       </c>
       <c r="I12" t="n">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="J12" t="n">
-        <v>0.38</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K12" t="n">
-        <v>1.2</v>
+        <v>0.03</v>
       </c>
       <c r="L12" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="M12" t="n">
-        <v>10287</v>
+        <v>21385</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-29 01:13:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 22:03:26.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>9da1a9</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>99ccff</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R12" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou6r8FApwiszGdCVX_-O7kYSCgvq6Yb-Bl2kE7sZ03rmZ8Nz33gS3_kFpYmrzLNSTcldtMA7UqwO5kL3p1oj84srADq8bFw</t>
-        </is>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668635380D2336460724210517048</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpovrG1eVcwg8zLZAJSvteJkoySnvnzDL_Dk2pc1810i__Yu9SijgPg8kM6NmHxLIWQdlU6M1vW-gW9lLru1JW4tMubnSQ1uCgltn_D30vgp79JleM</t>
+        </is>
+      </c>
+      <c r="R12" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0.03</v>
       </c>
       <c r="T12" t="n">
-        <v>0.11</v>
+        <v>0.02</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="V12" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="X12" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4067d4fd</t>
+          <t>6c008d21</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MP9 | Nexus (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>MP9 | Nexus (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>43668688486</t>
-        </is>
+          <t>Five-SeveN | Scrawl (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>2</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>44411654337</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F13" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="G13" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.16</v>
+        <v>0.06</v>
       </c>
       <c r="I13" t="n">
-        <v>0.17</v>
+        <v>0.05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.32</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K13" t="n">
-        <v>0.72</v>
+        <v>0.04</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="M13" t="n">
-        <v>37499</v>
+        <v>59595</v>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 21:33:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 21:47:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R13" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou6r8FApwiszGdCVX_-O6nYeDg7mgZLiExjIIsZcn2L2Zrdr3iwW2r0VsMW_yJ4WXIAQ4YVuF_QPokunom9bi64jvUemn</t>
-        </is>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668688486D3372143125530029072</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgposLOzLhRlxfbGTj5X09q_goWYkuHxPYTQmntZ6fp-h-zG9LP4jVC9vh5yYWqmcIaWcQE7aFnQ8wLowby71Mft6ZzJyXUx7ykl7SyJmBawh0kYa_sv26IpjR8uCg</t>
+        </is>
+      </c>
+      <c r="R13" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0.04</v>
       </c>
       <c r="T13" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="V13" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W13" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>b2ff2d95</t>
+          <t>1f11ece3</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>AWP | Safari Mesh (Well-Worn)</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>AWP | Safari Mesh (Well-Worn)</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
+          <t>SCAR-20 | Fragments (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
         <v>1</v>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>15203666539</t>
-        </is>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43778506379</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.13</v>
+        <v>0.08</v>
       </c>
       <c r="G14" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I14" t="n">
-        <v>0.14</v>
+        <v>0.08</v>
       </c>
       <c r="J14" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0.1</v>
+        <v>0.04</v>
       </c>
       <c r="L14" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M14" t="n">
-        <v>33189</v>
+        <v>78033</v>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-29 01:42:02.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 16:19:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>5e98d9</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>Industrial Grade</t>
-        </is>
-      </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpot621FBRw7P7NYjV9-N24q42Ok_7hPvWAlTgBupwk0-3H8Nil3lLt_UBlYWnxI4WSdAU8NVyDr1S8w-a-g5O0ot2Xns69tUxy</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A15203666539D775791825769389253</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopbmkOVUw7PTbTi5B7c6JkpKKkPrxPa_CqWld6cZ6teTE8YXghRrm-0tkMm2ncoCRJgFsYlvY-Vm8wu3s1p-87cjAnCAx6SAr5y6In0exn1gSOSIzMTE5</t>
+        </is>
+      </c>
+      <c r="R14" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0.03</v>
       </c>
       <c r="T14" t="n">
-        <v>0.08</v>
+        <v>0.03</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="V14" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>c78015ab</t>
+          <t>6b6d9181</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AUG | Condemned (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>AUG | Condemned (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
+          <t>P2000 | Sure Grip (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
         <v>1</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>16629050342</t>
-        </is>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>43778239562</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F15" t="n">
-        <v>0.12</v>
+        <v>0.05</v>
       </c>
       <c r="G15" t="n">
-        <v>0.11</v>
+        <v>0.05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1</v>
+        <v>0.06</v>
       </c>
       <c r="J15" t="n">
-        <v>0.1</v>
+        <v>0.39</v>
       </c>
       <c r="K15" t="n">
-        <v>0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L15" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="M15" t="n">
-        <v>93531</v>
+        <v>33759</v>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-29 02:38:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 18:24:02.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>9da1a9</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>5e98d9</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>Industrial Grade</t>
-        </is>
-      </c>
-      <c r="R15" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpot6-iFBRw7P7NYjV96tOkkZOfqPH9Ib7um25V4dB8xOrH94mn2QbnqkVvam2ndoCSJg9tNV_ZqVPtkum9jZ_ttc_JzyRm7CI8pSGKIJFteCE</t>
-        </is>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A16629050342D54234811906142920</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpovrG1eVcwg8zYIzZ96s63l5SKm8j5Nr_Yg2Yfup0j2OiZrN_xjQblrRI6MD_0cdKRewBqMwnRq1O6w7_m0ZLqv53In2wj5HdLwnd96g</t>
+        </is>
+      </c>
+      <c r="R15" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0.04</v>
       </c>
       <c r="T15" t="n">
-        <v>0.09</v>
+        <v>0.03</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="V15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="X15" t="n">
-        <v>0.02</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="V15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3ff959eb</t>
+          <t>d0fae3c4</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SSG 08 | Memorial (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>SSG 08 | Memorial (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
+          <t>MP9 | Nexus (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
         <v>1</v>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>43668703724</t>
-        </is>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>43778222558</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09</v>
+        <v>0.06</v>
       </c>
       <c r="G16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="H16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="I16" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="J16" t="n">
-        <v>0.18</v>
+        <v>0.32</v>
       </c>
       <c r="K16" t="n">
-        <v>0.61</v>
+        <v>0.04</v>
       </c>
       <c r="L16" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M16" t="n">
-        <v>50817</v>
+        <v>66667</v>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-02 06:19:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 21:28:08.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopamie19fwODPIWV97s6jgIGHnuTgDLbUkmJE5Yt02bDEo9StjA2w_BY-Y2CmIdSVelc-aArZ-gfsye65jZC7uZidmyZmpGB8sg4j4ZRT</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668703724D2784569044302609412</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou6r8FApwiszGdCVX_-O7kYSCgvq6Yb-Bl2kE7sZ03rmZ8Nz33gS3_kFpYmrzLNSTcldtMA7UqwO5kL3p1oj84srADq8bFw</t>
+        </is>
+      </c>
+      <c r="R16" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0.04</v>
       </c>
       <c r="T16" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="U16" t="n">
         <v>0.05</v>
       </c>
-      <c r="V16" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W16" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>9445f5f9</t>
+          <t>7a94a55b</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>USP-S | PC-GRN (Battle-Scarred)</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>USP-S | PC-GRN (Battle-Scarred)</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
+          <t>MAC-10 | Ensnared (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
         <v>1</v>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>43668577867</t>
-        </is>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>43777515875</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>0.09</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G17" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="H17" t="n">
         <v>0.07000000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.09</v>
+        <v>0.05</v>
       </c>
       <c r="J17" t="n">
-        <v>0.25</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="L17" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="M17" t="n">
-        <v>32668</v>
+        <v>31945</v>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-30 23:56:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 18:22:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpoo6m1FBRp3_bGcjhQ08mlhJO0leXhJ77XmXlS7fp2mOzE-7P9jVWisl09YTr6cYfDdwY2ZQ6D_1frlb_m1pS7vpyfmiNr6HVw7S6Onha2gkwacKUx0mNx5dkp</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668577867D16618461445035342733</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou7umeldf0Ob3fDxBvYyJhImTnvLLPr7Vn35cpscj37CS996g3FHj-EBpYWr6coPGcQFqZgqE8lPqle3pjJK5uJqbz3F9-n51qYN3NaA</t>
+        </is>
+      </c>
+      <c r="R17" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0.03</v>
       </c>
       <c r="T17" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="V17" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="X17" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2e08bf4c</t>
+          <t>ec84671b</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>M4A4 | Choppa (Battle-Scarred)</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>M4A4 | Choppa (Battle-Scarred)</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
+          <t>Negev | Drop Me (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
         <v>1</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>43668624266</t>
-        </is>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>43776654255</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="G18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="J18" t="n">
         <v>0.06</v>
       </c>
-      <c r="H18" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="I18" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.11</v>
-      </c>
       <c r="K18" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="L18" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M18" t="n">
-        <v>27788</v>
+        <v>29989</v>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-30 04:22:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 14:35:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R18" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou-6kejhth_KcTjpQ6dm4q4OKmvjLO77QgHIfu5Ypie-YrNTwiVLk_URsMj_3d9edJ1I8YV7Y-VPvxb3vjZW77ZSdwGwj5HciM6sSmQ</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668624266D9269653273203157508</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpouL-iLhFf0Ob3fzhF6cqJl4yOluXLILDIqWNU6dNoxO-R9tqm3QHl_UM9Z2vxIdSXIAY6NViC_lm6wenrgpHp78mcmHJhvCY8pSGKjNh4An4</t>
+        </is>
+      </c>
+      <c r="R18" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0.03</v>
       </c>
       <c r="T18" t="n">
         <v>0.03</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="V18" t="n">
         <v>0.04</v>
       </c>
-      <c r="W18" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="X18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ad88934e</t>
+          <t>2e08bf4c</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>XM1014 | Mockingbird (Well-Worn)</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>XM1014 | Mockingbird (Well-Worn)</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
+          <t>M4A4 | Choppa (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
         <v>1</v>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>43668616227</t>
-        </is>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>43668624266</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F19" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="H19" t="n">
         <v>0.05</v>
       </c>
       <c r="I19" t="n">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="J19" t="n">
-        <v>0.11</v>
+        <v>0.37</v>
       </c>
       <c r="K19" t="n">
-        <v>0.31</v>
+        <v>0.04</v>
       </c>
       <c r="L19" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M19" t="n">
-        <v>33606</v>
+        <v>57390</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-02 00:24:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N19" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 16:29:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>9da1a9</t>
         </is>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>4b69ff</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>Mil-Spec Grade</t>
-        </is>
-      </c>
-      <c r="R19" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgporrf0e1Y07OvFIG0TuOO7m4OAnvnzMbLDklRc7cF4n-SPpt6mi1W3-UFrY2HyLIHEIFVsYF-Dq1jvyL250cO175nBwSRiuSYk4mGdwUIggt5pyA</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43668616227D12450247641412490765</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou-6kejhth_KcTjpQ6dm4q4OKmvjLO77QgHIfu5Ypie-YrNTwiVLk_URsMj_3d9edJ1I8YV7Y-VPvxb3vjZW77ZSdwGwj5HciM6sSmQ</t>
+        </is>
+      </c>
+      <c r="R19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.04</v>
       </c>
       <c r="T19" t="n">
         <v>0.03</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="W19" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="X19" t="inlineStr"/>
+        <v>0.02</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5a6e85a5</t>
+          <t>ad88934e</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sawed-Off | Runoff (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Sawed-Off | Runoff (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
+          <t>XM1014 | Mockingbird (Well-Worn)</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
         <v>1</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>43611062979</t>
-        </is>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>43668616227</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="G20" t="n">
         <v>0.05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.04</v>
+        <v>0.06</v>
       </c>
       <c r="I20" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06</v>
+        <v>0.31</v>
       </c>
       <c r="K20" t="n">
-        <v>0.16</v>
+        <v>0.04</v>
       </c>
       <c r="L20" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="M20" t="n">
-        <v>28165</v>
+        <v>63350</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 21:48:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 18:32:41.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>9da1a9</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>9da1a9</t>
+          <t>4b69ff</t>
         </is>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Mil-Spec Grade</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>Consumer Grade</t>
-        </is>
-      </c>
-      <c r="R20" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopbuyLgNv1fX3di5B5OOknZCbm_LLPr7Vn35cpscgi7mWoo-kjVWx-0c6YW2nIdLDew48ZFjUqVe5lefs0Me_u53KnyN9-n51Xc7tIQw</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A43611062979D16467071502084166021</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgporrf0e1Y07OvFIG0TuOO7m4OAnvnzMbLDklRc7cF4n-SPpt6mi1W3-UFrY2HyLIHEIFVsYF-Dq1jvyL250cO175nBwSRiuSYk4mGdwUIggt5pyA</t>
+        </is>
+      </c>
+      <c r="R20" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0.04</v>
       </c>
       <c r="T20" t="n">
         <v>0.03</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="X20" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
+      <c r="V20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>46d7cbca</t>
+          <t>5a6e85a5</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | Ninja (Violent Violet)</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | Ninja (Violent Violet)</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
+          <t>Sawed-Off | Runoff (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
         <v>1</v>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>16240787874</t>
-        </is>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>43611062979</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F21" t="n">
         <v>0.05</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="I21" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J21" t="n">
-        <v>0.03</v>
+        <v>0.16</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="L21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M21" t="n">
-        <v>4318</v>
+        <v>62668</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 19:24:07.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 12:51:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>00a000</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Consumer Grade</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R21" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pO-CI3r-Zj3FYSfdTgw8RLRYM2qIqmalsO6cFj6fSb55RA0HKPcA92EdaJyNNkBp14AVu2u_0UdyEhk6f9BKZAarxm1OMLt8miUUStJ5-F8</t>
-        </is>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A16240787874D5333651079055983464</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopbuyLgNv1fX3di5B5OOknZCbm_LLPr7Vn35cpscgi7mWoo-kjVWx-0c6YW2nIdLDew48ZFjUqVe5lefs0Me_u53KnyN9-n51Xc7tIQw</t>
+        </is>
+      </c>
+      <c r="R21" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S21" t="n">
+        <v>0.04</v>
       </c>
       <c r="T21" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01</v>
+        <v>0.04</v>
       </c>
       <c r="V21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W21" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X21" t="n">
-        <v>0.01</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>f3e3a039</t>
+          <t>c5e6b078</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | Sorry (Desert Amber)</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | Sorry (Desert Amber)</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
+          <t>Sealed Graffiti | 8-Ball (War Pig Pink)</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
         <v>1</v>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>16121886498</t>
-        </is>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15268895926</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="F22" t="n">
         <v>0.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03</v>
+        <v>0.06</v>
       </c>
       <c r="I22" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="J22" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M22" t="n">
-        <v>3889</v>
+        <v>5682</v>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 15:07:02.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 19:59:26.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>00a000</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>00a000</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0su2fDm25PWfAfnaAGlo8TeFcZ26Lqjr047-cEG6cE-9-FgkNKKAA8DEfbs2NbQx9itAdqGq0mFZwCxo8e9VKaVK6zyxAYrndTtL7tQ</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A16121886498D180145277933364104</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0qe6yGX3wYCPGLi3VUlttSuJeZzvZ_jr3s-idSj3BRLorRQoGeaZWozBNO8-ONhA_0tIM_DL2h0p6WBUnfspUfRq33n0DPaR4zXURJs9X6xTv0lY</t>
+        </is>
+      </c>
+      <c r="R22" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0.02</v>
       </c>
       <c r="T22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="U22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="V22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>768f758f</t>
+          <t>6836fd59</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | Eye Spy (Frog Green)</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | Eye Spy (Frog Green)</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
+          <t>PP-Bizon | Facility Sketch (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
         <v>1</v>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>15631631458</t>
-        </is>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>44516194334</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.05</v>
       </c>
       <c r="F23" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G23" t="n">
         <v>0.03</v>
@@ -2549,86 +2329,76 @@
         <v>0.03</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4661</v>
+        <v>99841</v>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 15:02:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 19:45:29.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Consumer Grade</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pPuIHnX7ZHnAfCSPTg5tSeELZzrRqjCi5OXAE2vNQe5_QVpQfqNQpGYcb86Ba0A1ysdVrCO7mEhyDBs9ftFPYAOilyBLabt9mMDRok6d</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A15631631458D3324971279475305408</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpotLO_JAlf2-r3czFX6cyknY6fqOD8Oq_UqWdY781lxO_Ept7z3lC2rRdtYGqgItLBewZsMFyErgK7l7rtgpfvv8zAnSE3vCQ8pSGK2-p_3pM</t>
+        </is>
+      </c>
+      <c r="R23" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0.02</v>
       </c>
       <c r="T23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="V23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X23" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>120d846f</t>
+          <t>e9089532</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | Keep the Change (Frog Green)</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | Keep the Change (Frog Green)</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
+          <t>Sealed Graffiti | Cocky (Frog Green)</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
         <v>1</v>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>15581307459</t>
-        </is>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>43952950309</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0.05</v>
       </c>
       <c r="F24" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G24" t="n">
         <v>0.03</v>
@@ -2643,89 +2413,79 @@
         <v>0.03</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M24" t="n">
-        <v>21522</v>
+        <v>4032</v>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-02 00:12:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 22:03:46.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>00a000</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pe2BEHXlJmDHdnWAGQ88ReUMYTnZ92at5OiSF2zKE-ApEgpVL_QE9DBOOZuJOEAjlNlc7Wa3m0tvEwMkZsxWfBbmnixLN-V1bHZsw8c</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A15581307459D14873737438356057516</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0s-2CD2DyenmRKnHaGgo8SeVaYGDR_jb2s7zGRTmYELwsFQ1QK_NX-mRJOMvcaRRoysdVrCO7mEhyDBs9ftFPYAOilyBLabt9mFX16b0d</t>
+        </is>
+      </c>
+      <c r="R24" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S24" t="n">
+        <v>0.01</v>
       </c>
       <c r="T24" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="V24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W24" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X24" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>19d8eb3a</t>
+          <t>f04c8321</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | 8-Ball (Brick Red)</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | 8-Ball (Brick Red)</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
+          <t>Sealed Graffiti | GGEZ (Monster Purple)</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
         <v>1</v>
       </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>15557181095</t>
-        </is>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15047407095</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0.05</v>
       </c>
       <c r="F25" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G25" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="H25" t="n">
         <v>0.03</v>
@@ -2737,86 +2497,76 @@
         <v>0.03</v>
       </c>
       <c r="K25" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M25" t="n">
-        <v>6002</v>
+        <v>3556</v>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 02:13:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 14:37:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>00a000</t>
         </is>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R25" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0qe6yGX3wYCPGLi3VUlttSuJeZzvZ_jr3s-idSj3BRLorRQoGeaZWozBNO8-ONhA_0tIM_DL2h0p6WBUnfspUfRq33n0DPaR4kHZGcZ9Wimgxm-E</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A15557181095D12126544002554848068</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0puWyTCW5OzOdenmJGFw6GLsKM2zZ9zektu2XEDnOE-ktEQgFe6MBoWUYacyANgx9itAdqGq0mFZwCxo8e9VKaVLtzyAVaLuMt2Zwkg</t>
+        </is>
+      </c>
+      <c r="R25" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0.01</v>
       </c>
       <c r="T25" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="U25" t="n">
         <v>0.01</v>
       </c>
       <c r="V25" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="X25" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>e1a7c3fc</t>
+          <t>f75c3367</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | GLHF (Brick Red)</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | GLHF (Brick Red)</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
+          <t>XM1014 | Blue Spruce (Minimal Wear)</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
         <v>1</v>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>15339301664</t>
-        </is>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14219985063</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.05</v>
       </c>
       <c r="F26" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G26" t="n">
         <v>0.03</v>
@@ -2825,92 +2575,82 @@
         <v>0.03</v>
       </c>
       <c r="I26" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J26" t="n">
         <v>0.03</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M26" t="n">
-        <v>4215</v>
+        <v>31930</v>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-03 02:23:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 16:11:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>00a000</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Consumer Grade</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R26" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pu6FGjrzPGOTKyPbSgs4TbpWMm_YqzOk5OuWQDjIFO59EQ1Re_BS8zYbb8_bIVJjg5FYpGm3hUloEgIhYslfLVfsniBHZXCVU9Kp</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A15339301664D4649979301716853632</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgporrf0e1Y07ODHTjBN_8-JmImMn-O6ZevVxG8Cv8Ah2L-W9N6n2gfl-xZpMWGiddWXd1VtYV3ZqVW3l7q71oj84srX2bLPtQ</t>
+        </is>
+      </c>
+      <c r="R26" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0.02</v>
       </c>
       <c r="T26" t="n">
-        <v>0.01</v>
+        <v>0.03</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="V26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X26" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>c5e6b078</t>
+          <t>6cbcd055</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | 8-Ball (War Pig Pink)</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | 8-Ball (War Pig Pink)</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
+          <t>SCAR-20 | Sand Mesh (Battle-Scarred)</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>15268895926</t>
-        </is>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>44904042461</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.04</v>
       </c>
       <c r="F27" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G27" t="n">
         <v>0.03</v>
@@ -2919,92 +2659,82 @@
         <v>0.03</v>
       </c>
       <c r="I27" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="J27" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="K27" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L27" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M27" t="n">
-        <v>7966</v>
+        <v>38598</v>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 21:35:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 13:20:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>00a000</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Consumer Grade</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R27" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0qe6yGX3wYCPGLi3VUlttSuJeZzvZ_jr3s-idSj3BRLorRQoGeaZWozBNO8-ONhA_0tIM_DL2h0p6WBUnfspUfRq33n0DPaR4zXURJs9X6xTv0lY</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A15268895926D14332707098900202472</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopbmkOVUw7ODYTjBH_9SJh4GFk8j8NrrHjyUJv5d30rjApY302gewrxduajqmJNXEIA44ZF3Wrljol-jtjJTov5nA1zI97Qd5yOE4</t>
+        </is>
+      </c>
+      <c r="R27" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S27" t="n">
+        <v>0.01</v>
       </c>
       <c r="T27" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="V27" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="X27" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>f04c8321</t>
+          <t>a9cac5f7</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | GGEZ (Monster Purple)</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | GGEZ (Monster Purple)</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
+          <t>MAG-7 | Rust Coat (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>1</v>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>15047407095</t>
-        </is>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>44626963987</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.04</v>
       </c>
       <c r="F28" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G28" t="n">
         <v>0.03</v>
@@ -3019,86 +2749,76 @@
         <v>0.03</v>
       </c>
       <c r="K28" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4115</v>
+        <v>100233</v>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 11:55:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 18:41:24.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>00a000</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Consumer Grade</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R28" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0puWyTCW5OzOdenmJGFw6GLsKM2zZ9zektu2XEDnOE-ktEQgFe6MBoWUYacyANgx9itAdqGq0mFZwCxo8e9VKaVLtzyAVaLuMt2Zwkg</t>
-        </is>
-      </c>
-      <c r="S28" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A15047407095D9811172514979555712</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpou7uifDhhwszbZThH4OO_moaOhfn7DLbUkmJE5YtwjurErN6g2Fbl80I4MG_zd9CWdg5qNF-E-1K4x7jv1sDovsjKnCNjpGB8shajJ3fj</t>
+        </is>
+      </c>
+      <c r="R28" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S28" t="n">
+        <v>0.02</v>
       </c>
       <c r="T28" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="V28" t="n">
         <v>0.01</v>
-      </c>
-      <c r="W28" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X28" t="n">
-        <v>0.02</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>ca548fca</t>
+          <t>737e7647</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | Toasted (Monster Purple)</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | Toasted (Monster Purple)</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
+          <t>Five-SeveN | Coolant (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
         <v>1</v>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>14955563225</t>
-        </is>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>44558054459</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0.04</v>
       </c>
       <c r="F29" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G29" t="n">
         <v>0.03</v>
@@ -3113,43 +2833,41 @@
         <v>0.03</v>
       </c>
       <c r="K29" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M29" t="n">
-        <v>8812</v>
+        <v>165757</v>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 15:31:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 12:53:16.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>00a000</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Consumer Grade</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R29" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0rO2BBTqgPGPGLHSKTQ0_H-ZZNjyP-Tb0sLmUFmvPRLl5S1gHfKVQ-zJMPJuAIVJjg5FYpGm3hUloEgIhYslfLVm-nnJKN-AvsM1r</t>
-        </is>
-      </c>
-      <c r="S29" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A14955563225D4819426988412896648</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgposLOzLhRlxfbGTjVb09ijl5SYqPDmNr7fqWZU7Mxkh6eRo9ql2lW3r0U6ZmDzdYGWdQ9oZ1GE-1O-wu3rjJK_vc7ImyMwvCki-z-DyA_nogvF</t>
+        </is>
+      </c>
+      <c r="R29" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S29" t="n">
+        <v>0.02</v>
       </c>
       <c r="T29" t="n">
         <v>0.01</v>
@@ -3158,41 +2876,33 @@
         <v>0.01</v>
       </c>
       <c r="V29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W29" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X29" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>91cccc5e</t>
+          <t>dd91e755</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | QQ (Battle Green)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | QQ (Battle Green)</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
+          <t>Tec-9 | Army Mesh (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>1</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>14704630269</t>
-        </is>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16472063772</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0.04</v>
       </c>
       <c r="F30" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G30" t="n">
         <v>0.03</v>
@@ -3207,43 +2917,41 @@
         <v>0.03</v>
       </c>
       <c r="K30" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M30" t="n">
-        <v>4226</v>
+        <v>204247</v>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-30 01:54:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 18:21:02.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Consumer Grade</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R30" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pO-CI3DyeyfFJjOXSF1tHrFfZG7fq2Hwt7iURT_AFeh4Eg9QevENpDJKO83aORQ9gNRe_iuomUM7HRkkfddLZQOvw2QfKOBykHgWcJjT-jU4tQ</t>
-        </is>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A14704630269D192616474681844040</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpoor-mcjhzw8zFdC5K092kmZm0mvLwOq7c2D4Evp1y3bmQ89miilDt_hU-YGjwIIGccAM6YArZ81jolejs0JfovszXiSw0VV39XcQ</t>
+        </is>
+      </c>
+      <c r="R30" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S30" t="n">
+        <v>0.01</v>
       </c>
       <c r="T30" t="n">
         <v>0.01</v>
@@ -3252,41 +2960,33 @@
         <v>0.01</v>
       </c>
       <c r="V30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W30" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X30" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>d3682038</t>
+          <t>f521e8d0</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | 8-Ball (Princess Pink)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | 8-Ball (Princess Pink)</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
+          <t>P250 | Boreal Forest (Field-Tested)</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
         <v>1</v>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>14454756890</t>
-        </is>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>16383471293</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0.04</v>
       </c>
       <c r="F31" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G31" t="n">
         <v>0.03</v>
@@ -3301,43 +3001,41 @@
         <v>0.03</v>
       </c>
       <c r="K31" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M31" t="n">
-        <v>5093</v>
+        <v>140171</v>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-29 01:54:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 22:24:34.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Consumer Grade</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R31" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0qe6yGX3wYCPGLi3VUlttSuJeZzvZ_jr3s-idSj3BRLorRQoGeaZWozBNO8-ONhA_0tIM_DL2h0p6WBUnfspUfRq33n0DPaR4kSVHc5wD3PD2J4k</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A14454756890D14307034027555711784</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopujwezhoyszOfi9H_8iJlo-Zkvb4DLbUkmJE5Yt307uY89r22QXs_0M_YGHzI4SXdQc4NQuC8gfvxrzt18Lt6cifnCRjpGB8ssSnt9jR</t>
+        </is>
+      </c>
+      <c r="R31" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0.01</v>
       </c>
       <c r="T31" t="n">
         <v>0.01</v>
@@ -3346,41 +3044,33 @@
         <v>0.01</v>
       </c>
       <c r="V31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W31" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X31" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>f75c3367</t>
+          <t>234d213a</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>XM1014 | Blue Spruce (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>XM1014 | Blue Spruce (Minimal Wear)</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
+          <t>Sealed Graffiti | GGWP (Tracer Yellow)</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
         <v>1</v>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>14219985063</t>
-        </is>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>16365291749</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0.04</v>
       </c>
       <c r="F32" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="G32" t="n">
         <v>0.03</v>
@@ -3395,86 +3085,76 @@
         <v>0.03</v>
       </c>
       <c r="K32" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L32" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="M32" t="n">
-        <v>52498</v>
+        <v>3648</v>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 21:16:32.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 15:41:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>00a000</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>Consumer Grade</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgporrf0e1Y07ODHTjBN_8-JmImMn-O6ZevVxG8Cv8Ah2L-W9N6n2gfl-xZpMWGiddWXd1VtYV3ZqVW3l7q71oj84srX2bLPtQ</t>
-        </is>
-      </c>
-      <c r="S32" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A14219985063D12106431043710843521</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0puWyTCa5ODKcLnfaGAoxHLYMNG-LrTCiseXBSjDIQuopRl1XePFQ9TVMb5yLOAx9itAdqGq0mFZwCxo8e9VKaVK_nndKZL9UYV9IwA</t>
+        </is>
+      </c>
+      <c r="R32" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S32" t="n">
+        <v>0.01</v>
       </c>
       <c r="T32" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="U32" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="V32" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W32" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X32" t="n">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>dd91e755</t>
+          <t>46d7cbca</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Tec-9 | Army Mesh (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Tec-9 | Army Mesh (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
+          <t>Sealed Graffiti | Ninja (Violent Violet)</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
         <v>1</v>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>16472063772</t>
-        </is>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>16240787874</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0.04</v>
       </c>
       <c r="F33" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G33" t="n">
         <v>0.03</v>
@@ -3489,43 +3169,41 @@
         <v>0.03</v>
       </c>
       <c r="K33" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M33" t="n">
-        <v>163120</v>
+        <v>3402</v>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-02 03:17:32.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 18:32:46.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>00a000</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>Consumer Grade</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpoor-mcjhzw8zFdC5K092kmZm0mvLwOq7c2D4Evp1y3bmQ89miilDt_hU-YGjwIIGccAM6YArZ81jolejs0JfovszXiSw0VV39XcQ</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A16472063772D3206613830793368572</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pO-CI3r-Zj3FYSfdTgw8RLRYM2qIqmalsO6cFj6fSb55RA0HKPcA92EdaJyNNkBp14AVu2u_0UdyEhk6f9BKZAarxm1OMLt8miUUStJ5-F8</t>
+        </is>
+      </c>
+      <c r="R33" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S33" t="n">
+        <v>0.01</v>
       </c>
       <c r="T33" t="n">
         <v>0.01</v>
@@ -3534,41 +3212,33 @@
         <v>0.01</v>
       </c>
       <c r="V33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W33" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X33" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>f521e8d0</t>
+          <t>f3e3a039</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>P250 | Boreal Forest (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>P250 | Boreal Forest (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
+          <t>Sealed Graffiti | Sorry (Desert Amber)</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
         <v>1</v>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>16383471293</t>
-        </is>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>16121886498</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0.04</v>
       </c>
       <c r="F34" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G34" t="n">
         <v>0.03</v>
@@ -3583,86 +3253,76 @@
         <v>0.03</v>
       </c>
       <c r="K34" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M34" t="n">
-        <v>192172</v>
+        <v>3235</v>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 23:25:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 13:18:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>00a000</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>Consumer Grade</t>
-        </is>
-      </c>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopujwezhoyszOfi9H_8iJlo-Zkvb4DLbUkmJE5Yt307uY89r22QXs_0M_YGHzI4SXdQc4NQuC8gfvxrzt18Lt6cifnCRjpGB8ssSnt9jR</t>
-        </is>
-      </c>
-      <c r="S34" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A16383471293D189722934399248844</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0su2fDm25PWfAfnaAGlo8TeFcZ26Lqjr047-cEG6cE-9-FgkNKKAA8DEfbs2NbQx9itAdqGq0mFZwCxo8e9VKaVK6zyxAYrndTtL7tQ</t>
+        </is>
+      </c>
+      <c r="R34" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0.02</v>
       </c>
       <c r="T34" t="n">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="U34" t="n">
         <v>0.01</v>
       </c>
       <c r="V34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W34" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X34" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>234d213a</t>
+          <t>768f758f</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | GGWP (Tracer Yellow)</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | GGWP (Tracer Yellow)</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
+          <t>Sealed Graffiti | Eye Spy (Frog Green)</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
         <v>1</v>
       </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>16365291749</t>
-        </is>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>15631631458</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0.04</v>
       </c>
       <c r="F35" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G35" t="n">
         <v>0.03</v>
@@ -3677,43 +3337,41 @@
         <v>0.03</v>
       </c>
       <c r="K35" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M35" t="n">
-        <v>4446</v>
+        <v>3608</v>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-29 00:13:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 16:32:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>00a000</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0puWyTCa5ODKcLnfaGAoxHLYMNG-LrTCiseXBSjDIQuopRl1XePFQ9TVMb5yLOAx9itAdqGq0mFZwCxo8e9VKaVK_nndKZL9UYV9IwA</t>
-        </is>
-      </c>
-      <c r="S35" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A16365291749D17026473590167735564</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pPuIHnX7ZHnAfCSPTg5tSeELZzrRqjCi5OXAE2vNQe5_QVpQfqNQpGYcb86Ba0A1ysdVrCO7mEhyDBs9ftFPYAOilyBLabt9mMDRok6d</t>
+        </is>
+      </c>
+      <c r="R35" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0.01</v>
       </c>
       <c r="T35" t="n">
         <v>0.01</v>
@@ -3722,92 +3380,82 @@
         <v>0.01</v>
       </c>
       <c r="V35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X35" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>1f1d2694</t>
+          <t>120d846f</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | GTG (Blood Red)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | GTG (Blood Red)</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
+          <t>Sealed Graffiti | Keep the Change (Frog Green)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
         <v>1</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>15415777243</t>
-        </is>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>15581307459</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0.04</v>
       </c>
       <c r="F36" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G36" t="n">
         <v>0.03</v>
       </c>
       <c r="H36" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="J36" t="n">
         <v>0.03</v>
       </c>
       <c r="K36" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L36" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M36" t="n">
-        <v>5633</v>
+        <v>19456</v>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-03 04:22:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 13:11:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>00a000</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pvaKUnDzOTLGenWITAYwS7FZN2Dd9zWj4ryXS23JEu1_F1sDePAD92BLac2Xf0xqwtRUp2qqmlFxCh84ftwbcl7vziAX7ifvW5g</t>
-        </is>
-      </c>
-      <c r="S36" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A15415777243D14438790052088555296</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pe2BEHXlJmDHdnWAGQ88ReUMYTnZ92at5OiSF2zKE-ApEgpVL_QE9DBOOZuJOEAjlNlc7Wa3m0tvEwMkZsxWfBbmnixLN-V1bHZsw8c</t>
+        </is>
+      </c>
+      <c r="R36" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S36" t="n">
+        <v>0.01</v>
       </c>
       <c r="T36" t="n">
         <v>0.01</v>
@@ -3816,41 +3464,33 @@
         <v>0.01</v>
       </c>
       <c r="V36" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W36" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X36" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>b729073f</t>
+          <t>19d8eb3a</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | Noscope (SWAT Blue)</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | Noscope (SWAT Blue)</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
+          <t>Sealed Graffiti | 8-Ball (Brick Red)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
         <v>1</v>
       </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>15144109378</t>
-        </is>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15557181095</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0.04</v>
       </c>
       <c r="F37" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G37" t="n">
         <v>0.03</v>
@@ -3859,49 +3499,47 @@
         <v>0.03</v>
       </c>
       <c r="I37" t="n">
-        <v>0.03</v>
+        <v>0.05</v>
       </c>
       <c r="J37" t="n">
         <v>0.03</v>
       </c>
       <c r="K37" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="L37" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M37" t="n">
-        <v>4383</v>
+        <v>4260</v>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-30 12:19:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 15:07:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>D2D2D2</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>00a000</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0r-2yD3f4eDKKeySJTQlqTrQNYWqIrTHz5eSQQW7OQOguQg5SKPEH8WJIOsCNOhU_gplLpWL-lEtxEQQlZ8lSeR-30ylHMugnkXlv8wNmtQ</t>
-        </is>
-      </c>
-      <c r="S37" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A15144109378D10089929232557721964</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0qe6yGX3wYCPGLi3VUlttSuJeZzvZ_jr3s-idSj3BRLorRQoGeaZWozBNO8-ONhA_0tIM_DL2h0p6WBUnfspUfRq33n0DPaR4kHZGcZ9Wimgxm-E</t>
+        </is>
+      </c>
+      <c r="R37" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S37" t="n">
+        <v>0.02</v>
       </c>
       <c r="T37" t="n">
         <v>0.01</v>
@@ -3910,41 +3548,33 @@
         <v>0.01</v>
       </c>
       <c r="V37" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X37" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5ad491fc</t>
+          <t>1f1d2694</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sealed Graffiti | X-Knives (Battle Green)</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Sealed Graffiti | X-Knives (Battle Green)</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
+          <t>Sealed Graffiti | GTG (Blood Red)</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
         <v>1</v>
       </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>14300300049</t>
-        </is>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>15415777243</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0.04</v>
       </c>
       <c r="F38" t="n">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="G38" t="n">
         <v>0.03</v>
@@ -3959,43 +3589,41 @@
         <v>0.03</v>
       </c>
       <c r="K38" t="n">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="L38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M38" t="n">
-        <v>6235</v>
+        <v>4131</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-30 11:57:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>{'date': '2025-05-15 20:49:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+          <t>00a000</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>D2D2D2</t>
+          <t>b0c3d9</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>b0c3d9</t>
+          <t>Base Grade</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>Base Grade</t>
-        </is>
-      </c>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0quyECnHkVzTWIDLKGVomHLoKMW7d_DKit-nAR2zORrkqSwEFKPQE-jdOPJyMbBI83IcD82HulgptEBFuccpKfx2233gHOK0p0XxFfZIGnCdsWV3ADQ</t>
-        </is>
-      </c>
-      <c r="S38" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A14300300049D9243159962248299404</t>
-        </is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pvaKUnDzOTLGenWITAYwS7FZN2Dd9zWj4ryXS23JEu1_F1sDePAD92BLac2Xf0xqwtRUp2qqmlFxCh84ftwbcl7vziAX7ifvW5g</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0.01</v>
       </c>
       <c r="T38" t="n">
         <v>0.01</v>
@@ -4004,106 +3632,594 @@
         <v>0.01</v>
       </c>
       <c r="V38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X38" t="n">
         <v>0.01</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
+          <t>e1a7c3fc</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Sealed Graffiti | GLHF (Brick Red)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>15339301664</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L39" t="n">
+        <v>3149</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 04:03:30.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>D2D2D2</t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>b0c3d9</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Base Grade</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pu6FGjrzPGOTKyPbSgs4TbpWMm_YqzOk5OuWQDjIFO59EQ1Re_BS8zYbb8_bIVJjg5FYpGm3hUloEgIhYslfLVfsniBHZXCVU9Kp</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>b729073f</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Sealed Graffiti | Noscope (SWAT Blue)</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15144109378</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L40" t="n">
+        <v>3621</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-03 01:57:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>00a000</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>b0c3d9</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Base Grade</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0r-2yD3f4eDKKeySJTQlqTrQNYWqIrTHz5eSQQW7OQOguQg5SKPEH8WJIOsCNOhU_gplLpWL-lEtxEQQlZ8lSeR-30ylHMugnkXlv8wNmtQ</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>ca548fca</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Sealed Graffiti | Toasted (Monster Purple)</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>14955563225</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L41" t="n">
+        <v>7281</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>{'date': '2025-06-28 19:09:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>D2D2D2</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>b0c3d9</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Base Grade</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0rO2BBTqgPGPGLHSKTQ0_H-ZZNjyP-Tb0sLmUFmvPRLl5S1gHfKVQ-zJMPJuAIVJjg5FYpGm3hUloEgIhYslfLVm-nnJKN-AvsM1r</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>91cccc5e</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Sealed Graffiti | QQ (Battle Green)</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>14704630269</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L42" t="n">
+        <v>3040</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-02 01:50:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>D2D2D2</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>b0c3d9</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Base Grade</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0pO-CI3DyeyfFJjOXSF1tHrFfZG7fq2Hwt7iURT_AFeh4Eg9QevENpDJKO83aORQ9gNRe_iuomUM7HRkkfddLZQOvw2QfKOBykHgWcJjT-jU4tQ</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
           <t>94d8ed84</t>
         </is>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>SSG 08 | Blue Spruce (Field-Tested)</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>SSG 08 | Blue Spruce (Field-Tested)</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
+      <c r="C43" t="n">
         <v>1</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>14677921877</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="G39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="M39" t="n">
-        <v>211944</v>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>{'date': '2025-05-15 12:46:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
+      <c r="E43" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L43" t="n">
+        <v>277502</v>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 14:21:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>D2D2D2</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>b0c3d9</t>
         </is>
       </c>
-      <c r="Q39" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>Consumer Grade</t>
         </is>
       </c>
-      <c r="R39" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>https://community.cloudflare.steamstatic.com/economy/image/-9a81dlWLwJ2UUGcVs_nsVtzdOEdtWwKGZZLQHTxDZ7I56KU0Zwwo4NUX4oFJZEHLbXH5ApeO4YmlhxYQknCRvCo04DEVlxkKgpopamie19fwPz3fDJR_-O7kYSCgvq6a7_TxTME7Z0j3-2XpNWi3gSw_kVoZT-lI4eWe1NvZ1mFqFbqxejo0Yj84spJOB2PcQ</t>
         </is>
       </c>
-      <c r="S39" t="inlineStr">
-        <is>
-          <t>steam://rungame/730/76561202255233023/+csgo_econ_action_preview%20S76561198102151621A14677921877D14891225621743842532</t>
-        </is>
-      </c>
-      <c r="T39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="V39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="X39" t="n">
+      <c r="R43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>d3682038</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Sealed Graffiti | 8-Ball (Princess Pink)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>14454756890</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L44" t="n">
+        <v>3549</v>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 02:51:01.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>D2D2D2</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>b0c3d9</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>Base Grade</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0qe6yGX3wYCPGLi3VUlttSuJeZzvZ_jr3s-idSj3BRLorRQoGeaZWozBNO8-ONhA_0tIM_DL2h0p6WBUnfspUfRq33n0DPaR4kSVHc5wD3PD2J4k</t>
+        </is>
+      </c>
+      <c r="R44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>5ad491fc</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Sealed Graffiti | X-Knives (Battle Green)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14300300049</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L45" t="n">
+        <v>4235</v>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>{'date': '2025-07-01 13:16:31.000000', 'timezone_type': 3, 'timezone': 'UTC'}</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>D2D2D2</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>b0c3d9</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Base Grade</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>https://community.cloudflare.steamstatic.com/economy/image/IzMF03bi9WpSBq-S-ekoE33L-iLqGFHVaU25ZzQNQcXdB2ozio1RrlIWFK3UfvMYB8UsvjiMXojflsZalyxSh31CIyHz2GZ-KuFpPsrTzBG0quyECnHkVzTWIDLKGVomHLoKMW7d_DKit-nAR2zORrkqSwEFKPQE-jdOPJyMbBI83IcD82HulgptEBFuccpKfx2233gHOK0p0XxFfZIGnCdsWV3ADQ</t>
+        </is>
+      </c>
+      <c r="R45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="V45" t="n">
         <v>0.01</v>
       </c>
     </row>
